--- a/TestData/LV_T1683_HLInternalTeam_EditAndUpdate.xlsx
+++ b/TestData/LV_T1683_HLInternalTeam_EditAndUpdate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B6A9DC-4491-4934-A062-6E3201151E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A22BBC-537B-4EEB-8568-AE6FC424D9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -201,9 +201,6 @@
     <t>Opportunities</t>
   </si>
   <si>
-    <t>Debt Capital Markets</t>
-  </si>
-  <si>
     <t>IndustryGroup/HLSector</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>Dealership &amp; Rental Services</t>
+  </si>
+  <si>
+    <t>Debt Financing</t>
   </si>
 </sst>
 </file>
@@ -259,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -268,7 +268,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,7 +631,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,7 +671,7 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +709,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
@@ -793,13 +792,13 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
